--- a/Saudi/expensesUpdate.xlsx
+++ b/Saudi/expensesUpdate.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="33">
   <si>
     <t>Booking No</t>
   </si>
   <si>
-    <t>Transaction Code</t>
-  </si>
-  <si>
     <t>Transaction Code Description</t>
   </si>
   <si>
@@ -39,34 +36,88 @@
     <t>Payment Method</t>
   </si>
   <si>
-    <t>TDF Fees</t>
+    <t>Rooms Allotments International</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>VAT 5%</t>
-  </si>
-  <si>
-    <t>Muncipality 7%</t>
-  </si>
-  <si>
-    <t>Service Charge La Fontana 10%</t>
-  </si>
-  <si>
-    <t>Service Charge Rooms 10%</t>
-  </si>
-  <si>
-    <t>Package</t>
+    <t>Laundry(M)</t>
+  </si>
+  <si>
+    <t>Rooms Individual \ Walk-In</t>
   </si>
   <si>
     <t>Breakfast Package</t>
   </si>
   <si>
+    <t>Upselling breakfast food</t>
+  </si>
+  <si>
     <t>Rooms Online</t>
   </si>
   <si>
+    <t>Allowance Rooms Allotments International</t>
+  </si>
+  <si>
+    <t>Skyland Alc(M)</t>
+  </si>
+  <si>
+    <t>Rooms Permanent</t>
+  </si>
+  <si>
+    <t>Orphic lobby cafe Food(M)</t>
+  </si>
+  <si>
+    <t>Banquet Alc(M)</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
     <t>MA</t>
+  </si>
+  <si>
+    <t>Dinner Package</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Pool side bar Alc(M)</t>
+  </si>
+  <si>
+    <t>La Fontana Breakfast B.V(M)</t>
+  </si>
+  <si>
+    <t>La Fontana Restaurant Alc(M)</t>
+  </si>
+  <si>
+    <t>La Fontana Restaurant Other(M)</t>
+  </si>
+  <si>
+    <t>La Fontana Dinner B.V(M)</t>
+  </si>
+  <si>
+    <t>Skyland Food(M)</t>
+  </si>
+  <si>
+    <t>Room Service B.V(M)</t>
+  </si>
+  <si>
+    <t>Lunch Package</t>
+  </si>
+  <si>
+    <t>Room Service Other(M)</t>
+  </si>
+  <si>
+    <t>Allowance Skyland Alc</t>
+  </si>
+  <si>
+    <t>Rooms Airline Crews</t>
+  </si>
+  <si>
+    <t>AX</t>
   </si>
 </sst>
 </file>
@@ -562,7 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -571,7 +622,13 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -898,24 +955,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -931,472 +987,1681 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>58652</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B2" s="3">
-        <v>8032</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>77401</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30.2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>50918</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>58154</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>212.24</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>72901</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>327.35000000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>72901</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>49416</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17.25</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>56975</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>51.72</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>56975</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>56969</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>48.63</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>71651</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>146.91999999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>49416</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>49416</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-1.62</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>57411</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>57407</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>33.99</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>56152</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>27.26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>53159</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19.82</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>56928</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>56959</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>29.41</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>49426</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>71401</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>56906</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>54401</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
+        <v>430</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>54401</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2300</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>54401</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <v>550</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>53154</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2400</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>18921</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>58155</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>360</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>23400</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
+        <v>419.25</v>
+      </c>
+      <c r="D31" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>23400</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>80</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>23400</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>19660</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>250.62</v>
+      </c>
+      <c r="D34" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8030</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>53652</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3">
+        <v>90</v>
+      </c>
+      <c r="D35" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>53652</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B4" s="3">
-        <v>8028</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C36" s="6">
+        <v>1300</v>
+      </c>
+      <c r="D36" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>57663</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3">
+        <v>110</v>
+      </c>
+      <c r="D37" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>57663</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3">
+        <v>500</v>
+      </c>
+      <c r="D38" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>19660</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B5" s="3">
-        <v>8004</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C39" s="3">
+        <v>80</v>
+      </c>
+      <c r="D39" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>270</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>54909</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3">
+        <v>273.06</v>
+      </c>
+      <c r="D41" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>57663</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3">
+        <v>210</v>
+      </c>
+      <c r="D42" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>57663</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="3">
+        <v>730</v>
+      </c>
+      <c r="D43" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>48651</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3">
+        <v>450</v>
+      </c>
+      <c r="D44" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>48651</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3">
+        <v>340</v>
+      </c>
+      <c r="D45" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>54909</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3">
+        <v>80</v>
+      </c>
+      <c r="D46" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>54909</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="3">
+        <v>100</v>
+      </c>
+      <c r="D47" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>54910</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3">
+        <v>287.35000000000002</v>
+      </c>
+      <c r="D48" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48651</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D49" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>50653</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3">
+        <v>300</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50653</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D51" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52153</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="3">
+        <v>570.75</v>
+      </c>
+      <c r="D52" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52153</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3">
+        <v>80</v>
+      </c>
+      <c r="D53" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>52155</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3">
+        <v>357</v>
+      </c>
+      <c r="D54" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>58653</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>58654</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>58655</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>58656</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>19651</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="3">
+        <v>442.95</v>
+      </c>
+      <c r="D59" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>19651</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>40</v>
+      </c>
+      <c r="D60" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>19651</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3">
+        <v>50</v>
+      </c>
+      <c r="D61" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>58657</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>58658</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>52651</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="3">
+        <v>450</v>
+      </c>
+      <c r="D64" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>51154</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="3">
+        <v>425</v>
+      </c>
+      <c r="D65" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>53152</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>350.61</v>
+      </c>
+      <c r="D66" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>18930</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3">
+        <v>291.43</v>
+      </c>
+      <c r="D67" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>18930</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3">
+        <v>80</v>
+      </c>
+      <c r="D68" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>53152</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3">
+        <v>80</v>
+      </c>
+      <c r="D69" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>53152</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="3">
+        <v>100</v>
+      </c>
+      <c r="D70" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>53154</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>528.16</v>
+      </c>
+      <c r="D71" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>54154</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3">
+        <v>301.63</v>
+      </c>
+      <c r="D72" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>54154</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3">
+        <v>80</v>
+      </c>
+      <c r="D73" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>54156</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>301.63</v>
+      </c>
+      <c r="D74" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>53154</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3">
+        <v>80</v>
+      </c>
+      <c r="D75" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>53157</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3">
+        <v>247.6</v>
+      </c>
+      <c r="D76" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>53157</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3">
+        <v>80</v>
+      </c>
+      <c r="D77" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>54156</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3">
+        <v>80</v>
+      </c>
+      <c r="D78" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>19412</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3">
+        <v>273</v>
+      </c>
+      <c r="D79" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>75901</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8030</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>19.54</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8028</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C80" s="3">
+        <v>289.79000000000002</v>
+      </c>
+      <c r="D80" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>57903</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3">
+        <v>433.5</v>
+      </c>
+      <c r="D81" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>53161</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3">
+        <v>257.55</v>
+      </c>
+      <c r="D82" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>53161</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
-        <v>24.87</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B8" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="C83" s="3">
+        <v>40</v>
+      </c>
+      <c r="D83" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>58401</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
-        <v>35.53</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9800</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>435.29</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9800</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>435.29</v>
-      </c>
-      <c r="E10" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8032</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C84" s="3">
+        <v>259.76</v>
+      </c>
+      <c r="D84" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>18911</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="3">
+        <v>298</v>
+      </c>
+      <c r="D85" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>19170</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3">
+        <v>443.25</v>
+      </c>
+      <c r="D86" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>19170</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3">
+        <v>40</v>
+      </c>
+      <c r="D87" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>53164</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3">
+        <v>217.55</v>
+      </c>
+      <c r="D88" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>53164</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3">
+        <v>80</v>
+      </c>
+      <c r="D89" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>57680</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="3">
+        <v>306.92</v>
+      </c>
+      <c r="D90" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>19409</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="3">
+        <v>493.28</v>
+      </c>
+      <c r="D91" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>19409</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3">
+        <v>80</v>
+      </c>
+      <c r="D92" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>52653</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="3">
+        <v>340</v>
+      </c>
+      <c r="D94" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>52653</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3">
+        <v>80</v>
+      </c>
+      <c r="D95" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>57680</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3">
+        <v>80</v>
+      </c>
+      <c r="D96" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>56902</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3">
+        <v>287.35000000000002</v>
+      </c>
+      <c r="D97" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>56902</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="3">
+        <v>80</v>
+      </c>
+      <c r="D98" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="3">
+        <v>287.36</v>
+      </c>
+      <c r="D99" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>19166</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>270.20999999999998</v>
+      </c>
+      <c r="D100" s="5">
+        <v>43547</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8030</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8028</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B14" s="3">
-        <v>8004</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B15" s="3">
-        <v>8030</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>19.54</v>
-      </c>
-      <c r="E15" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B16" s="3">
-        <v>8028</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
-        <v>24.87</v>
-      </c>
-      <c r="E16" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B17" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3">
-        <v>35.53</v>
-      </c>
-      <c r="E17" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B18" s="3">
-        <v>9800</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
-        <v>435.29</v>
-      </c>
-      <c r="E18" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B19" s="3">
-        <v>9800</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3">
-        <v>435.29</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>80</v>
-      </c>
-      <c r="E20" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3">
-        <v>355.29</v>
-      </c>
-      <c r="E21" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
-        <v>80</v>
-      </c>
-      <c r="E22" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>39652</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3">
-        <v>355.29</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>13400</v>
-      </c>
-      <c r="B24" s="3">
-        <v>8032</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>20</v>
-      </c>
-      <c r="E24" s="4">
-        <v>43547</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>